--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H2">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I2">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J2">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.326087</v>
+        <v>13.09190433333333</v>
       </c>
       <c r="N2">
-        <v>15.978261</v>
+        <v>39.275713</v>
       </c>
       <c r="O2">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="P2">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="Q2">
-        <v>92.16037781754702</v>
+        <v>228.9100183944282</v>
       </c>
       <c r="R2">
-        <v>829.4434003579231</v>
+        <v>2060.190165549854</v>
       </c>
       <c r="S2">
-        <v>0.009565030009022811</v>
+        <v>0.03112835174883724</v>
       </c>
       <c r="T2">
-        <v>0.009565030009022812</v>
+        <v>0.03112835174883724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H3">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I3">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J3">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.996509</v>
       </c>
       <c r="O3">
-        <v>0.007324843448182339</v>
+        <v>0.009411347630931009</v>
       </c>
       <c r="P3">
-        <v>0.007324843448182338</v>
+        <v>0.009411347630931006</v>
       </c>
       <c r="Q3">
-        <v>11.515585066243</v>
+        <v>11.63622190422467</v>
       </c>
       <c r="R3">
-        <v>103.640265596187</v>
+        <v>104.725997138022</v>
       </c>
       <c r="S3">
-        <v>0.001195165637755205</v>
+        <v>0.001582352799597026</v>
       </c>
       <c r="T3">
-        <v>0.001195165637755205</v>
+        <v>0.001582352799597026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H4">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I4">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J4">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.56390266666667</v>
+        <v>14.65291633333333</v>
       </c>
       <c r="N4">
-        <v>103.691708</v>
+        <v>43.958749</v>
       </c>
       <c r="O4">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="P4">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="Q4">
-        <v>598.0792894687828</v>
+        <v>256.2040832253268</v>
       </c>
       <c r="R4">
-        <v>5382.713605219044</v>
+        <v>2305.836749027942</v>
       </c>
       <c r="S4">
-        <v>0.06207273111303106</v>
+        <v>0.03483993788504482</v>
       </c>
       <c r="T4">
-        <v>0.06207273111303107</v>
+        <v>0.03483993788504482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H5">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I5">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J5">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.115986666666667</v>
+        <v>1.733624333333333</v>
       </c>
       <c r="N5">
-        <v>9.34796</v>
+        <v>5.200873</v>
       </c>
       <c r="O5">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907615</v>
       </c>
       <c r="P5">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907614</v>
       </c>
       <c r="Q5">
-        <v>53.91772768158667</v>
+        <v>30.31216604768155</v>
       </c>
       <c r="R5">
-        <v>485.2595491342801</v>
+        <v>272.809494429134</v>
       </c>
       <c r="S5">
-        <v>0.005595948014814934</v>
+        <v>0.004122002932067215</v>
       </c>
       <c r="T5">
-        <v>0.005595948014814935</v>
+        <v>0.004122002932067214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H6">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I6">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J6">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.275936666666666</v>
+        <v>5.449339666666667</v>
       </c>
       <c r="N6">
-        <v>15.82781</v>
+        <v>16.348019</v>
       </c>
       <c r="O6">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680946</v>
       </c>
       <c r="P6">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680944</v>
       </c>
       <c r="Q6">
-        <v>91.29259746253668</v>
+        <v>95.2809012022891</v>
       </c>
       <c r="R6">
-        <v>821.63337716283</v>
+        <v>857.528110820602</v>
       </c>
       <c r="S6">
-        <v>0.009474965869384117</v>
+        <v>0.01295678288077608</v>
       </c>
       <c r="T6">
-        <v>0.009474965869384119</v>
+        <v>0.01295678288077608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H7">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I7">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J7">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.90817766666667</v>
+        <v>35.11953966666666</v>
       </c>
       <c r="N7">
-        <v>125.724533</v>
+        <v>105.358619</v>
       </c>
       <c r="O7">
-        <v>0.4612613926713248</v>
+        <v>0.4966501975817853</v>
       </c>
       <c r="P7">
-        <v>0.4612613926713249</v>
+        <v>0.4966501975817852</v>
       </c>
       <c r="Q7">
-        <v>725.1615468175577</v>
+        <v>614.0599767928223</v>
       </c>
       <c r="R7">
-        <v>6526.45392135802</v>
+        <v>5526.539791135401</v>
       </c>
       <c r="S7">
-        <v>0.07526219098657723</v>
+        <v>0.08350300736752321</v>
       </c>
       <c r="T7">
-        <v>0.07526219098657726</v>
+        <v>0.08350300736752318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>114.724638</v>
       </c>
       <c r="I8">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J8">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.326087</v>
+        <v>13.09190433333333</v>
       </c>
       <c r="N8">
-        <v>15.978261</v>
+        <v>39.275713</v>
       </c>
       <c r="O8">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="P8">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="Q8">
-        <v>203.677801010502</v>
+        <v>500.6546617907659</v>
       </c>
       <c r="R8">
-        <v>1833.100209094518</v>
+        <v>4505.891956116893</v>
       </c>
       <c r="S8">
-        <v>0.02113906566978397</v>
+        <v>0.06808157426323218</v>
       </c>
       <c r="T8">
-        <v>0.02113906566978398</v>
+        <v>0.06808157426323218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>114.724638</v>
       </c>
       <c r="I9">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J9">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.996509</v>
       </c>
       <c r="O9">
-        <v>0.007324843448182339</v>
+        <v>0.009411347630931009</v>
       </c>
       <c r="P9">
-        <v>0.007324843448182338</v>
+        <v>0.009411347630931006</v>
       </c>
       <c r="Q9">
         <v>25.449863587638</v>
@@ -1013,10 +1013,10 @@
         <v>229.048772288742</v>
       </c>
       <c r="S9">
-        <v>0.002641359711254856</v>
+        <v>0.003460802245670536</v>
       </c>
       <c r="T9">
-        <v>0.002641359711254856</v>
+        <v>0.003460802245670534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>114.724638</v>
       </c>
       <c r="I10">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J10">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.56390266666667</v>
+        <v>14.65291633333333</v>
       </c>
       <c r="N10">
-        <v>103.691708</v>
+        <v>43.958749</v>
       </c>
       <c r="O10">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="P10">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="Q10">
-        <v>1321.777073766856</v>
+        <v>560.350173995318</v>
       </c>
       <c r="R10">
-        <v>11895.99366390171</v>
+        <v>5043.151565957862</v>
       </c>
       <c r="S10">
-        <v>0.1371830028827332</v>
+        <v>0.07619927446160643</v>
       </c>
       <c r="T10">
-        <v>0.1371830028827333</v>
+        <v>0.07619927446160642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>114.724638</v>
       </c>
       <c r="I11">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J11">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.115986666666667</v>
+        <v>1.733624333333333</v>
       </c>
       <c r="N11">
-        <v>9.34796</v>
+        <v>5.200873</v>
       </c>
       <c r="O11">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907615</v>
       </c>
       <c r="P11">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907614</v>
       </c>
       <c r="Q11">
-        <v>119.16014744872</v>
+        <v>66.296474689886</v>
       </c>
       <c r="R11">
-        <v>1072.44132703848</v>
+        <v>596.6682722089739</v>
       </c>
       <c r="S11">
-        <v>0.01236724949720835</v>
+        <v>0.009015332742225182</v>
       </c>
       <c r="T11">
-        <v>0.01236724949720835</v>
+        <v>0.009015332742225178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>114.724638</v>
       </c>
       <c r="I12">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J12">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.275936666666666</v>
+        <v>5.449339666666667</v>
       </c>
       <c r="N12">
-        <v>15.82781</v>
+        <v>16.348019</v>
       </c>
       <c r="O12">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680946</v>
       </c>
       <c r="P12">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680944</v>
       </c>
       <c r="Q12">
-        <v>201.75997473142</v>
+        <v>208.391173532458</v>
       </c>
       <c r="R12">
-        <v>1815.83977258278</v>
+        <v>1875.520561792122</v>
       </c>
       <c r="S12">
-        <v>0.02094002063171101</v>
+        <v>0.02833809457781787</v>
       </c>
       <c r="T12">
-        <v>0.02094002063171102</v>
+        <v>0.02833809457781787</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>114.724638</v>
       </c>
       <c r="I13">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J13">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.90817766666667</v>
+        <v>35.11953966666666</v>
       </c>
       <c r="N13">
-        <v>125.724533</v>
+        <v>105.358619</v>
       </c>
       <c r="O13">
-        <v>0.4612613926713248</v>
+        <v>0.4966501975817853</v>
       </c>
       <c r="P13">
-        <v>0.4612613926713249</v>
+        <v>0.4966501975817852</v>
       </c>
       <c r="Q13">
-        <v>1602.633504016006</v>
+        <v>1343.025491661658</v>
       </c>
       <c r="R13">
-        <v>14423.70153614406</v>
+        <v>12087.22942495492</v>
       </c>
       <c r="S13">
-        <v>0.1663321909305351</v>
+        <v>0.1826314558241141</v>
       </c>
       <c r="T13">
-        <v>0.1663321909305351</v>
+        <v>0.1826314558241141</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H14">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I14">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J14">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.326087</v>
+        <v>13.09190433333333</v>
       </c>
       <c r="N14">
-        <v>15.978261</v>
+        <v>39.275713</v>
       </c>
       <c r="O14">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="P14">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="Q14">
-        <v>101.664444525566</v>
+        <v>90.96952056507344</v>
       </c>
       <c r="R14">
-        <v>914.9800007300942</v>
+        <v>818.725685085661</v>
       </c>
       <c r="S14">
-        <v>0.01055142660832851</v>
+        <v>0.0123704993535644</v>
       </c>
       <c r="T14">
-        <v>0.01055142660832851</v>
+        <v>0.0123704993535644</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H15">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I15">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J15">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.996509</v>
       </c>
       <c r="O15">
-        <v>0.007324843448182339</v>
+        <v>0.009411347630931009</v>
       </c>
       <c r="P15">
-        <v>0.007324843448182338</v>
+        <v>0.009411347630931006</v>
       </c>
       <c r="Q15">
-        <v>12.703133243054</v>
+        <v>4.624269113430334</v>
       </c>
       <c r="R15">
-        <v>114.328199187486</v>
+        <v>41.61842202087301</v>
       </c>
       <c r="S15">
-        <v>0.001318417453962439</v>
+        <v>0.000628831697947419</v>
       </c>
       <c r="T15">
-        <v>0.001318417453962439</v>
+        <v>0.0006288316979474188</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H16">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I16">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J16">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.56390266666667</v>
+        <v>14.65291633333333</v>
       </c>
       <c r="N16">
-        <v>103.691708</v>
+        <v>43.958749</v>
       </c>
       <c r="O16">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="P16">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="Q16">
-        <v>659.7563962515815</v>
+        <v>101.8162629197948</v>
       </c>
       <c r="R16">
-        <v>5937.807566264232</v>
+        <v>916.346366278153</v>
       </c>
       <c r="S16">
-        <v>0.0684740001965314</v>
+        <v>0.01384549469765195</v>
       </c>
       <c r="T16">
-        <v>0.06847400019653141</v>
+        <v>0.01384549469765195</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H17">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I17">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J17">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.115986666666667</v>
+        <v>1.733624333333333</v>
       </c>
       <c r="N17">
-        <v>9.34796</v>
+        <v>5.200873</v>
       </c>
       <c r="O17">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907615</v>
       </c>
       <c r="P17">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907614</v>
       </c>
       <c r="Q17">
-        <v>59.47800958109334</v>
+        <v>12.04614473402011</v>
       </c>
       <c r="R17">
-        <v>535.30208622984</v>
+        <v>108.415302606181</v>
       </c>
       <c r="S17">
-        <v>0.006173031838545543</v>
+        <v>0.001638096196610627</v>
       </c>
       <c r="T17">
-        <v>0.006173031838545544</v>
+        <v>0.001638096196610627</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H18">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I18">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J18">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.275936666666666</v>
+        <v>5.449339666666667</v>
       </c>
       <c r="N18">
-        <v>15.82781</v>
+        <v>16.348019</v>
       </c>
       <c r="O18">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680946</v>
       </c>
       <c r="P18">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680944</v>
       </c>
       <c r="Q18">
-        <v>100.7071740601933</v>
+        <v>37.86491286914922</v>
       </c>
       <c r="R18">
-        <v>906.36456654174</v>
+        <v>340.784215822343</v>
       </c>
       <c r="S18">
-        <v>0.01045207457717508</v>
+        <v>0.005149063964072622</v>
       </c>
       <c r="T18">
-        <v>0.01045207457717508</v>
+        <v>0.005149063964072621</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H19">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I19">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J19">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.90817766666667</v>
+        <v>35.11953966666666</v>
       </c>
       <c r="N19">
-        <v>125.724533</v>
+        <v>105.358619</v>
       </c>
       <c r="O19">
-        <v>0.4612613926713248</v>
+        <v>0.4966501975817853</v>
       </c>
       <c r="P19">
-        <v>0.4612613926713249</v>
+        <v>0.4966501975817852</v>
       </c>
       <c r="Q19">
-        <v>799.9440496485314</v>
+        <v>244.0292569056159</v>
       </c>
       <c r="R19">
-        <v>7199.496446836783</v>
+        <v>2196.263312150543</v>
       </c>
       <c r="S19">
-        <v>0.08302362709032449</v>
+        <v>0.03318434291013223</v>
       </c>
       <c r="T19">
-        <v>0.08302362709032451</v>
+        <v>0.03318434291013222</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.158358999999999</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H20">
-        <v>9.475076999999999</v>
+        <v>3.589481</v>
       </c>
       <c r="I20">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J20">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.326087</v>
+        <v>13.09190433333333</v>
       </c>
       <c r="N20">
-        <v>15.978261</v>
+        <v>39.275713</v>
       </c>
       <c r="O20">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="P20">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="Q20">
-        <v>16.821694811233</v>
+        <v>15.66438061943922</v>
       </c>
       <c r="R20">
-        <v>151.395253301097</v>
+        <v>140.979425574953</v>
       </c>
       <c r="S20">
-        <v>0.0017458697488264</v>
+        <v>0.002130122365415186</v>
       </c>
       <c r="T20">
-        <v>0.001745869748826401</v>
+        <v>0.002130122365415185</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.158358999999999</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H21">
-        <v>9.475076999999999</v>
+        <v>3.589481</v>
       </c>
       <c r="I21">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J21">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.996509</v>
       </c>
       <c r="O21">
-        <v>0.007324843448182339</v>
+        <v>0.009411347630931009</v>
       </c>
       <c r="P21">
-        <v>0.007324843448182338</v>
+        <v>0.009411347630931006</v>
       </c>
       <c r="Q21">
-        <v>2.101897389577</v>
+        <v>0.7962701246476668</v>
       </c>
       <c r="R21">
-        <v>18.917076506193</v>
+        <v>7.166431121829</v>
       </c>
       <c r="S21">
-        <v>0.0002181491882226513</v>
+        <v>0.0001082808725497284</v>
       </c>
       <c r="T21">
-        <v>0.0002181491882226513</v>
+        <v>0.0001082808725497283</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.158358999999999</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H22">
-        <v>9.475076999999999</v>
+        <v>3.589481</v>
       </c>
       <c r="I22">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J22">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>34.56390266666667</v>
+        <v>14.65291633333333</v>
       </c>
       <c r="N22">
-        <v>103.691708</v>
+        <v>43.958749</v>
       </c>
       <c r="O22">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="P22">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="Q22">
-        <v>109.1652130623907</v>
+        <v>17.53212159102989</v>
       </c>
       <c r="R22">
-        <v>982.486917561516</v>
+        <v>157.789094319269</v>
       </c>
       <c r="S22">
-        <v>0.01132990731603023</v>
+        <v>0.002384107308263823</v>
       </c>
       <c r="T22">
-        <v>0.01132990731603023</v>
+        <v>0.002384107308263823</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.158358999999999</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H23">
-        <v>9.475076999999999</v>
+        <v>3.589481</v>
       </c>
       <c r="I23">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J23">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.115986666666667</v>
+        <v>1.733624333333333</v>
       </c>
       <c r="N23">
-        <v>9.34796</v>
+        <v>5.200873</v>
       </c>
       <c r="O23">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907615</v>
       </c>
       <c r="P23">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907614</v>
       </c>
       <c r="Q23">
-        <v>9.841404532546665</v>
+        <v>2.074270535212555</v>
       </c>
       <c r="R23">
-        <v>88.57264079292</v>
+        <v>18.668434816913</v>
       </c>
       <c r="S23">
-        <v>0.001021407810101439</v>
+        <v>0.0002820698862165526</v>
       </c>
       <c r="T23">
-        <v>0.00102140781010144</v>
+        <v>0.0002820698862165525</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.158358999999999</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H24">
-        <v>9.475076999999999</v>
+        <v>3.589481</v>
       </c>
       <c r="I24">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J24">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.275936666666666</v>
+        <v>5.449339666666667</v>
       </c>
       <c r="N24">
-        <v>15.82781</v>
+        <v>16.348019</v>
       </c>
       <c r="O24">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680946</v>
       </c>
       <c r="P24">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680944</v>
       </c>
       <c r="Q24">
-        <v>16.66330205459666</v>
+        <v>6.520100398682112</v>
       </c>
       <c r="R24">
-        <v>149.96971849137</v>
+        <v>58.680903588139</v>
       </c>
       <c r="S24">
-        <v>0.001729430672660309</v>
+        <v>0.0008866365049090874</v>
       </c>
       <c r="T24">
-        <v>0.00172943067266031</v>
+        <v>0.0008866365049090872</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.158358999999999</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H25">
-        <v>9.475076999999999</v>
+        <v>3.589481</v>
       </c>
       <c r="I25">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J25">
-        <v>0.02978209565376923</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.90817766666667</v>
+        <v>35.11953966666666</v>
       </c>
       <c r="N25">
-        <v>125.724533</v>
+        <v>105.358619</v>
       </c>
       <c r="O25">
-        <v>0.4612613926713248</v>
+        <v>0.4966501975817853</v>
       </c>
       <c r="P25">
-        <v>0.4612613926713249</v>
+        <v>0.4966501975817852</v>
       </c>
       <c r="Q25">
-        <v>132.3610701071156</v>
+        <v>42.02030678741544</v>
       </c>
       <c r="R25">
-        <v>1191.249630964041</v>
+        <v>378.182761086739</v>
       </c>
       <c r="S25">
-        <v>0.01373733091792821</v>
+        <v>0.005714135621704878</v>
       </c>
       <c r="T25">
-        <v>0.01373733091792821</v>
+        <v>0.005714135621704876</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.432258000000001</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H26">
-        <v>19.296774</v>
+        <v>15.991339</v>
       </c>
       <c r="I26">
-        <v>0.0606536885217046</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J26">
-        <v>0.06065368852170461</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.326087</v>
+        <v>13.09190433333333</v>
       </c>
       <c r="N26">
-        <v>15.978261</v>
+        <v>39.275713</v>
       </c>
       <c r="O26">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="P26">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="Q26">
-        <v>34.25876571444601</v>
+        <v>69.78569344996744</v>
       </c>
       <c r="R26">
-        <v>308.3288914300141</v>
+        <v>628.0712410497069</v>
       </c>
       <c r="S26">
-        <v>0.003555607408418931</v>
+        <v>0.009489814504335337</v>
       </c>
       <c r="T26">
-        <v>0.003555607408418932</v>
+        <v>0.009489814504335337</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.432258000000001</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H27">
-        <v>19.296774</v>
+        <v>15.991339</v>
       </c>
       <c r="I27">
-        <v>0.0606536885217046</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J27">
-        <v>0.06065368852170461</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.996509</v>
       </c>
       <c r="O27">
-        <v>0.007324843448182339</v>
+        <v>0.009411347630931009</v>
       </c>
       <c r="P27">
-        <v>0.007324843448182338</v>
+        <v>0.009411347630931006</v>
       </c>
       <c r="Q27">
-        <v>4.280686995774001</v>
+        <v>3.547428026172334</v>
       </c>
       <c r="R27">
-        <v>38.52618296196601</v>
+        <v>31.926852235551</v>
       </c>
       <c r="S27">
-        <v>0.0004442787729763003</v>
+        <v>0.0004823973549820991</v>
       </c>
       <c r="T27">
-        <v>0.0004442787729763003</v>
+        <v>0.000482397354982099</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.432258000000001</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H28">
-        <v>19.296774</v>
+        <v>15.991339</v>
       </c>
       <c r="I28">
-        <v>0.0606536885217046</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J28">
-        <v>0.06065368852170461</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>34.56390266666667</v>
+        <v>14.65291633333333</v>
       </c>
       <c r="N28">
-        <v>103.691708</v>
+        <v>43.958749</v>
       </c>
       <c r="O28">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="P28">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="Q28">
-        <v>222.3239394388881</v>
+        <v>78.10658414165677</v>
       </c>
       <c r="R28">
-        <v>2000.915454949992</v>
+        <v>702.959257274911</v>
       </c>
       <c r="S28">
-        <v>0.02307428856972686</v>
+        <v>0.01062133165736893</v>
       </c>
       <c r="T28">
-        <v>0.02307428856972687</v>
+        <v>0.01062133165736893</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.432258000000001</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H29">
-        <v>19.296774</v>
+        <v>15.991339</v>
       </c>
       <c r="I29">
-        <v>0.0606536885217046</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J29">
-        <v>0.06065368852170461</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.115986666666667</v>
+        <v>1.733624333333333</v>
       </c>
       <c r="N29">
-        <v>9.34796</v>
+        <v>5.200873</v>
       </c>
       <c r="O29">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907615</v>
       </c>
       <c r="P29">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907614</v>
       </c>
       <c r="Q29">
-        <v>20.04283016456</v>
+        <v>9.240991470994111</v>
       </c>
       <c r="R29">
-        <v>180.38547148104</v>
+        <v>83.16892323894699</v>
       </c>
       <c r="S29">
-        <v>0.002080181055347877</v>
+        <v>0.001256637149543435</v>
       </c>
       <c r="T29">
-        <v>0.002080181055347878</v>
+        <v>0.001256637149543435</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.432258000000001</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H30">
-        <v>19.296774</v>
+        <v>15.991339</v>
       </c>
       <c r="I30">
-        <v>0.0606536885217046</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J30">
-        <v>0.06065368852170461</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.275936666666666</v>
+        <v>5.449339666666667</v>
       </c>
       <c r="N30">
-        <v>15.82781</v>
+        <v>16.348019</v>
       </c>
       <c r="O30">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680946</v>
       </c>
       <c r="P30">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680944</v>
       </c>
       <c r="Q30">
-        <v>33.93618583166</v>
+        <v>29.04741264527123</v>
       </c>
       <c r="R30">
-        <v>305.42567248494</v>
+        <v>261.426713807441</v>
       </c>
       <c r="S30">
-        <v>0.003522127877060416</v>
+        <v>0.003950015314129363</v>
       </c>
       <c r="T30">
-        <v>0.003522127877060416</v>
+        <v>0.003950015314129363</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.432258000000001</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H31">
-        <v>19.296774</v>
+        <v>15.991339</v>
       </c>
       <c r="I31">
-        <v>0.0606536885217046</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J31">
-        <v>0.06065368852170461</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>41.90817766666667</v>
+        <v>35.11953966666666</v>
       </c>
       <c r="N31">
-        <v>125.724533</v>
+        <v>105.358619</v>
       </c>
       <c r="O31">
-        <v>0.4612613926713248</v>
+        <v>0.4966501975817853</v>
       </c>
       <c r="P31">
-        <v>0.4612613926713249</v>
+        <v>0.4966501975817852</v>
       </c>
       <c r="Q31">
-        <v>269.564211061838</v>
+        <v>187.2028214445379</v>
       </c>
       <c r="R31">
-        <v>2426.077899556542</v>
+        <v>1684.825393000841</v>
       </c>
       <c r="S31">
-        <v>0.02797720483817421</v>
+        <v>0.02545679439970805</v>
       </c>
       <c r="T31">
-        <v>0.02797720483817422</v>
+        <v>0.02545679439970805</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.82515533333334</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H32">
-        <v>65.47546600000001</v>
+        <v>104.37796</v>
       </c>
       <c r="I32">
-        <v>0.2058027171058468</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J32">
-        <v>0.2058027171058469</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.326087</v>
+        <v>13.09190433333333</v>
       </c>
       <c r="N32">
-        <v>15.978261</v>
+        <v>39.275713</v>
       </c>
       <c r="O32">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="P32">
-        <v>0.05862145394746399</v>
+        <v>0.1851418593633568</v>
       </c>
       <c r="Q32">
-        <v>116.2426760938474</v>
+        <v>455.5020889428312</v>
       </c>
       <c r="R32">
-        <v>1046.184084844626</v>
+        <v>4099.51880048548</v>
       </c>
       <c r="S32">
-        <v>0.01206445450308336</v>
+        <v>0.06194149712797246</v>
       </c>
       <c r="T32">
-        <v>0.01206445450308336</v>
+        <v>0.06194149712797244</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.82515533333334</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H33">
-        <v>65.47546600000001</v>
+        <v>104.37796</v>
       </c>
       <c r="I33">
-        <v>0.2058027171058468</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J33">
-        <v>0.2058027171058469</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.996509</v>
       </c>
       <c r="O33">
-        <v>0.007324843448182339</v>
+        <v>0.009411347630931009</v>
       </c>
       <c r="P33">
-        <v>0.007324843448182338</v>
+        <v>0.009411347630931006</v>
       </c>
       <c r="Q33">
-        <v>14.52470634979934</v>
+        <v>23.15461517129334</v>
       </c>
       <c r="R33">
-        <v>130.722357148194</v>
+        <v>208.3915365416401</v>
       </c>
       <c r="S33">
-        <v>0.001507472684010885</v>
+        <v>0.003148682660184201</v>
       </c>
       <c r="T33">
-        <v>0.001507472684010885</v>
+        <v>0.003148682660184199</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.82515533333334</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H34">
-        <v>65.47546600000001</v>
+        <v>104.37796</v>
       </c>
       <c r="I34">
-        <v>0.2058027171058468</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J34">
-        <v>0.2058027171058469</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>34.56390266666667</v>
+        <v>14.65291633333333</v>
       </c>
       <c r="N34">
-        <v>103.691708</v>
+        <v>43.958749</v>
       </c>
       <c r="O34">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="P34">
-        <v>0.3804267989649113</v>
+        <v>0.2072172318080413</v>
       </c>
       <c r="Q34">
-        <v>754.3625446262145</v>
+        <v>509.8138383080045</v>
       </c>
       <c r="R34">
-        <v>6789.26290163593</v>
+        <v>4588.32454477204</v>
       </c>
       <c r="S34">
-        <v>0.0782928688868585</v>
+        <v>0.06932708579810537</v>
       </c>
       <c r="T34">
-        <v>0.07829286888685852</v>
+        <v>0.06932708579810534</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.82515533333334</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H35">
-        <v>65.47546600000001</v>
+        <v>104.37796</v>
       </c>
       <c r="I35">
-        <v>0.2058027171058468</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J35">
-        <v>0.2058027171058469</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.115986666666667</v>
+        <v>1.733624333333333</v>
       </c>
       <c r="N35">
-        <v>9.34796</v>
+        <v>5.200873</v>
       </c>
       <c r="O35">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907615</v>
       </c>
       <c r="P35">
-        <v>0.03429603550991785</v>
+        <v>0.02451640527907614</v>
       </c>
       <c r="Q35">
-        <v>68.00689301659557</v>
+        <v>60.31739043989779</v>
       </c>
       <c r="R35">
-        <v>612.0620371493601</v>
+        <v>542.8565139590801</v>
       </c>
       <c r="S35">
-        <v>0.0070582172938997</v>
+        <v>0.008202266372413138</v>
       </c>
       <c r="T35">
-        <v>0.007058217293899701</v>
+        <v>0.008202266372413135</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.82515533333334</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H36">
-        <v>65.47546600000001</v>
+        <v>104.37796</v>
       </c>
       <c r="I36">
-        <v>0.2058027171058468</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J36">
-        <v>0.2058027171058469</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.275936666666666</v>
+        <v>5.449339666666667</v>
       </c>
       <c r="N36">
-        <v>15.82781</v>
+        <v>16.348019</v>
       </c>
       <c r="O36">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680946</v>
       </c>
       <c r="P36">
-        <v>0.05806947545819973</v>
+        <v>0.07706295833680944</v>
       </c>
       <c r="Q36">
-        <v>115.1481372788289</v>
+        <v>189.5969859179156</v>
       </c>
       <c r="R36">
-        <v>1036.33323550946</v>
+        <v>1706.37287326124</v>
       </c>
       <c r="S36">
-        <v>0.01195085583020879</v>
+        <v>0.02578236509510443</v>
       </c>
       <c r="T36">
-        <v>0.0119508558302088</v>
+        <v>0.02578236509510442</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.82515533333334</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H37">
-        <v>65.47546600000001</v>
+        <v>104.37796</v>
       </c>
       <c r="I37">
-        <v>0.2058027171058468</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J37">
-        <v>0.2058027171058469</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>41.90817766666667</v>
+        <v>35.11953966666666</v>
       </c>
       <c r="N37">
-        <v>125.724533</v>
+        <v>105.358619</v>
       </c>
       <c r="O37">
-        <v>0.4612613926713248</v>
+        <v>0.4966501975817853</v>
       </c>
       <c r="P37">
-        <v>0.4612613926713249</v>
+        <v>0.4966501975817852</v>
       </c>
       <c r="Q37">
-        <v>914.6524873119311</v>
+        <v>1221.901968848582</v>
       </c>
       <c r="R37">
-        <v>8231.872385807381</v>
+        <v>10997.11771963724</v>
       </c>
       <c r="S37">
-        <v>0.09492884790778559</v>
+        <v>0.1661604614586028</v>
       </c>
       <c r="T37">
-        <v>0.09492884790778562</v>
+        <v>0.1661604614586027</v>
       </c>
     </row>
   </sheetData>
